--- a/app/Licenciatura_em_Ensino_de_Ingles.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Ingles.xlsx
@@ -36,12 +36,11 @@
     <sheet name="20152048" sheetId="26" r:id="rId29"/>
     <sheet name="20152060" sheetId="27" r:id="rId30"/>
     <sheet name="20152062" sheetId="28" r:id="rId31"/>
-    <sheet name="20154439" sheetId="29" r:id="rId32"/>
-    <sheet name="20152054" sheetId="30" r:id="rId33"/>
-    <sheet name="20152066" sheetId="31" r:id="rId34"/>
-    <sheet name="20152067" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20152054" sheetId="29" r:id="rId32"/>
+    <sheet name="20152066" sheetId="30" r:id="rId33"/>
+    <sheet name="20152067" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>FÁtima Ernesto Numaio</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -234,9 +230,6 @@
     <t>Flora Cossa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110601257215S</t>
   </si>
   <si>
@@ -261,9 +254,6 @@
     <t>Laurinda VitÓria BÔa</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -291,9 +281,6 @@
     <t>Incognito</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -315,9 +302,6 @@
     <t>Angelina Alfredo Dimande</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>110104637021J</t>
   </si>
   <si>
@@ -342,9 +326,6 @@
     <t>Maria Augusta Matusse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100770573P</t>
   </si>
   <si>
@@ -480,9 +461,6 @@
     <t>Melita Jose Zimila</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090102539585F</t>
   </si>
   <si>
@@ -507,9 +485,6 @@
     <t>Lucia Alberto Ngoma</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080601415983P</t>
   </si>
   <si>
@@ -591,9 +566,6 @@
     <t>Cecilia Antonio Gimo</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -744,9 +716,6 @@
     <t>Getrude Jone Sixpence</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060702762729N</t>
   </si>
   <si>
@@ -771,9 +740,6 @@
     <t>Laura Saina</t>
   </si>
   <si>
-    <t>Distrito de Montepuez</t>
-  </si>
-  <si>
     <t>020100301577M</t>
   </si>
   <si>
@@ -825,12 +791,6 @@
     <t>Outra - Gaza</t>
   </si>
   <si>
-    <t>Chirindja</t>
-  </si>
-  <si>
-    <t>Nilton  Tomo</t>
-  </si>
-  <si>
     <t>Chilaule</t>
   </si>
   <si>
@@ -886,9 +846,6 @@
   </si>
   <si>
     <t xml:space="preserve">Joana  TomÁs </t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
   </si>
   <si>
     <t>070102535430J</t>
@@ -2157,7 +2114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2173,7 +2130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2189,7 +2146,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2205,7 +2162,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2221,7 +2178,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2236,9 +2193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2246,7 +2201,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2257,7 +2212,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2266,7 +2221,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2278,7 +2233,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2286,7 +2241,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2382,7 +2337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2425,7 +2380,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2752,7 +2707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2768,7 +2723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2784,7 +2739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2800,7 +2755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2816,7 +2771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2831,9 +2786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2841,7 +2794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2852,7 +2805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2861,7 +2814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2873,7 +2826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2881,7 +2834,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2977,7 +2930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3020,7 +2973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3347,7 +3300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3363,7 +3316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3379,7 +3332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3395,7 +3348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3411,7 +3364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3426,9 +3379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3436,7 +3387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3447,7 +3398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3456,7 +3407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3468,7 +3419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3476,7 +3427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3572,7 +3523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3615,7 +3566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3942,7 +3893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3958,7 +3909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3974,7 +3925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3990,7 +3941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4006,7 +3957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4021,9 +3972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4031,7 +3980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4042,7 +3991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4051,7 +4000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4063,7 +4012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4071,7 +4020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4167,7 +4116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4210,7 +4159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4537,7 +4486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4553,7 +4502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4569,7 +4518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4585,7 +4534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4601,7 +4550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4616,9 +4565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4626,7 +4573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4637,7 +4584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4646,7 +4593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4658,7 +4605,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4666,7 +4613,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4762,7 +4709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4805,7 +4752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5132,7 +5079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5148,7 +5095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5339,7 +5286,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5705,7 +5652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5721,7 +5668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5737,7 +5684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5753,7 +5700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5769,7 +5716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5784,9 +5731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5794,7 +5739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5805,7 +5750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5814,7 +5759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5826,7 +5771,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5834,7 +5779,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5930,7 +5875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5973,7 +5918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6300,7 +6245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6316,7 +6261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6332,7 +6277,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6348,7 +6293,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6364,7 +6309,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6379,9 +6324,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6389,7 +6332,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6400,7 +6343,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6409,7 +6352,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6421,7 +6364,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6429,7 +6372,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6525,7 +6468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6568,7 +6511,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6895,7 +6838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6911,7 +6854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6927,7 +6870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6943,7 +6886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6959,7 +6902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6974,9 +6917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6984,7 +6925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6995,7 +6936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7004,7 +6945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7016,7 +6957,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7120,7 +7061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7163,7 +7104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7490,7 +7431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7506,7 +7447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7522,7 +7463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7538,7 +7479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7554,7 +7495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7569,9 +7510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7579,7 +7518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7590,7 +7529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7599,7 +7538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7611,7 +7550,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7619,7 +7558,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7715,7 +7654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7758,7 +7697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8164,9 +8103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8174,7 +8111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8185,7 +8122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8194,7 +8131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8206,7 +8143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8310,7 +8247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8353,7 +8290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8680,7 +8617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8696,7 +8633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8712,7 +8649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8728,7 +8665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8744,7 +8681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8759,9 +8696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8769,7 +8704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8780,7 +8715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8789,7 +8724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8801,7 +8736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8905,7 +8840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8948,7 +8883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9275,7 +9210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9291,7 +9226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9307,7 +9242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9323,7 +9258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9339,7 +9274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9354,9 +9289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9364,7 +9297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9375,7 +9308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9384,7 +9317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9396,7 +9329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9404,7 +9337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9500,7 +9433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9543,7 +9476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9870,7 +9803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9886,7 +9819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9902,7 +9835,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9918,7 +9851,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9934,7 +9867,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9949,9 +9882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9959,7 +9890,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9970,7 +9901,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9979,7 +9910,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9991,7 +9922,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9999,7 +9930,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10095,7 +10026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10138,7 +10069,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10465,7 +10396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10481,7 +10412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10497,7 +10428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10513,7 +10444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10529,7 +10460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10544,9 +10475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10554,7 +10483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10565,7 +10494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10574,7 +10503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10586,7 +10515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10594,7 +10523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10690,7 +10619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10733,7 +10662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11060,7 +10989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11076,7 +11005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11092,7 +11021,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11108,7 +11037,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11124,7 +11053,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11139,9 +11068,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11149,7 +11076,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11160,7 +11087,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11169,7 +11096,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11181,7 +11108,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11189,7 +11116,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11285,7 +11212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11328,7 +11255,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11655,7 +11582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11671,7 +11598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11687,7 +11614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11703,7 +11630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11719,7 +11646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11734,9 +11661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11744,7 +11669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11755,7 +11680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11764,7 +11689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11776,7 +11701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11784,7 +11709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11880,7 +11805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11923,7 +11848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12250,7 +12175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12266,7 +12191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12282,7 +12207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12298,7 +12223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12314,7 +12239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12329,9 +12254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12339,7 +12262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12350,7 +12273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12359,7 +12282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12371,7 +12294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12379,7 +12302,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12475,7 +12398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12518,7 +12441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12845,7 +12768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12861,7 +12784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12877,7 +12800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12893,7 +12816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12909,7 +12832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12924,9 +12847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12934,7 +12855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12945,7 +12866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12954,7 +12875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12966,7 +12887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13070,7 +12991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13113,7 +13034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13440,7 +13361,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13456,7 +13377,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13472,7 +13393,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13488,7 +13409,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13504,7 +13425,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13519,9 +13440,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13529,7 +13448,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13540,7 +13459,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13549,7 +13468,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13561,7 +13480,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13569,7 +13488,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13665,7 +13584,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13708,7 +13627,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13959,7 +13878,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14009,7 +13930,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154439</v>
+        <v>20152054</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14033,7 +13954,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14049,7 +13970,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14064,7 +13985,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>249</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14078,7 +14001,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14092,7 +14017,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>251</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14113,7 +14040,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14122,14 +14051,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14139,13 +14072,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>110101662363</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14240,7 +14177,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14266,7 +14203,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14280,7 +14219,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14606,7 +14547,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14622,7 +14563,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14638,7 +14579,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14654,7 +14595,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14670,7 +14611,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14685,9 +14626,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14695,7 +14634,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14706,7 +14645,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14715,7 +14654,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14727,7 +14666,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14735,7 +14674,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14831,7 +14770,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14874,7 +14813,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15177,7 +15116,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152054</v>
+        <v>20152066</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15201,7 +15140,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15217,7 +15156,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15233,7 +15172,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15249,7 +15188,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15265,7 +15204,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15280,9 +15219,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15290,7 +15227,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15301,7 +15238,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15310,7 +15247,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15322,15 +15259,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110101662363</v>
+      <c r="H17" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15426,7 +15363,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15453,7 +15390,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15469,7 +15406,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15772,7 +15709,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152066</v>
+        <v>20152067</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15796,7 +15733,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15812,7 +15749,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15828,7 +15765,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15844,7 +15781,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15860,7 +15797,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15875,9 +15812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15885,7 +15820,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15896,7 +15831,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15905,7 +15840,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15917,7 +15852,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15925,7 +15860,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16021,7 +15956,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16048,7 +15983,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16064,7 +15999,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16267,601 +16202,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152067</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16885,7 +16225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17042,7 +16382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17058,7 +16398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17074,7 +16414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17090,7 +16430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17106,7 +16446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17121,9 +16461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17131,7 +16469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17142,7 +16480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17151,7 +16489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17163,7 +16501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17171,7 +16509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17267,7 +16605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17310,7 +16648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17637,7 +16975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17653,7 +16991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17669,7 +17007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17685,7 +17023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17701,7 +17039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17716,9 +17054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17726,7 +17062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17737,7 +17073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17746,7 +17082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17758,7 +17094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17862,7 +17198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17905,7 +17241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18232,7 +17568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18248,7 +17584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18264,7 +17600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18280,7 +17616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18296,7 +17632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18311,9 +17647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18321,7 +17655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18332,7 +17666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18341,7 +17675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18353,7 +17687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18361,7 +17695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18457,7 +17791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18500,7 +17834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18827,7 +18161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18843,7 +18177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18859,7 +18193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18875,7 +18209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18891,7 +18225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18906,9 +18240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18916,7 +18248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18927,7 +18259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18936,7 +18268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18948,7 +18280,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18956,7 +18288,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19052,7 +18384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19095,7 +18427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19422,7 +18754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19438,7 +18770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19454,7 +18786,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19470,7 +18802,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19486,7 +18818,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19501,9 +18833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19511,7 +18841,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19522,7 +18852,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19531,7 +18861,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19543,7 +18873,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19551,7 +18881,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19647,7 +18977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19690,7 +19020,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20017,7 +19347,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20033,7 +19363,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20049,7 +19379,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20065,7 +19395,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20081,7 +19411,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20096,9 +19426,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20106,7 +19434,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20117,7 +19445,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20126,7 +19454,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20138,7 +19466,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20146,7 +19474,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20242,7 +19570,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20285,7 +19613,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
